--- a/output/fit_clients/fit_round_129.xlsx
+++ b/output/fit_clients/fit_round_129.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1914519046.59254</v>
+        <v>2488031443.540639</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09317710435886868</v>
+        <v>0.107563031283903</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04201080828175936</v>
+        <v>0.03524860425717138</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>957259507.4269646</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2201528818.02103</v>
+        <v>1683443122.469085</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1475284294225258</v>
+        <v>0.1415172121422208</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0372474967253179</v>
+        <v>0.0466819178236973</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1100764480.229915</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3412013696.656897</v>
+        <v>3955245057.26524</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1136521734847449</v>
+        <v>0.116363164191606</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03056723630392629</v>
+        <v>0.03268380831926251</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>47</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1706006820.795274</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3030974229.435184</v>
+        <v>3467627880.061518</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07017109935348631</v>
+        <v>0.1059588846253267</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04159175678609941</v>
+        <v>0.03381198019288437</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>50</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1515487182.436965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2167982495.436965</v>
+        <v>2435136762.509159</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1018332703942898</v>
+        <v>0.1322269112627927</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04077420347260473</v>
+        <v>0.05553049901161466</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>19</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1083991259.091436</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2088734507.71088</v>
+        <v>2998105588.836793</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06568858951067388</v>
+        <v>0.07691338954929688</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04220145049797173</v>
+        <v>0.04024542981304252</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>37</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1044367306.412675</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3949278152.460454</v>
+        <v>2816009336.080375</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2107542028205657</v>
+        <v>0.1553223491925787</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03149451214797186</v>
+        <v>0.02811253567481182</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>41</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1974639230.73989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2300491740.555149</v>
+        <v>1473210104.181375</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1226205819112897</v>
+        <v>0.127285733169907</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03293809408618338</v>
+        <v>0.02669675852142123</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1150245855.140099</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3653048213.776713</v>
+        <v>5468229273.916425</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1944403572088602</v>
+        <v>0.1546124752182371</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04277593046865716</v>
+        <v>0.04114577667507807</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>55</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1826524101.849608</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3851973041.042146</v>
+        <v>2905474867.067464</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1857577325546932</v>
+        <v>0.161801333410038</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03446167569994622</v>
+        <v>0.04455408414596009</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>54</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1925986522.838911</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3250637992.543625</v>
+        <v>2762774889.848726</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1995019273525855</v>
+        <v>0.1395646916683093</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0462338575122598</v>
+        <v>0.0518298647261051</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>46</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1625319037.193849</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3677413938.716654</v>
+        <v>4285305959.467225</v>
       </c>
       <c r="F13" t="n">
-        <v>0.100486588898282</v>
+        <v>0.08912742124841312</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02825841774400744</v>
+        <v>0.0205378472402394</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>43</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1838707040.634783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2460587220.706935</v>
+        <v>3199881822.078919</v>
       </c>
       <c r="F14" t="n">
-        <v>0.172653060381289</v>
+        <v>0.1415427596833772</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02898675905925362</v>
+        <v>0.04082922529207297</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>41</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1230293683.807948</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1299659974.354971</v>
+        <v>1712926683.186666</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07394820935610474</v>
+        <v>0.1075083975882115</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03623916632713231</v>
+        <v>0.04770190072928545</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>649830027.211589</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1949583372.430044</v>
+        <v>2657747344.088106</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07825936843341622</v>
+        <v>0.1049493346251318</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04428614730594766</v>
+        <v>0.04091477948310223</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>20</v>
-      </c>
-      <c r="J16" t="n">
-        <v>974791766.1656107</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3634631380.468325</v>
+        <v>4850546964.127153</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1495485565857584</v>
+        <v>0.1291274747546616</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05066629144004772</v>
+        <v>0.03775296896660679</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>38</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1817315742.869035</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2988230141.650803</v>
+        <v>3825488417.030148</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1432645887829055</v>
+        <v>0.1273058188804547</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03244082363170167</v>
+        <v>0.02581225224099197</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>42</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1494115101.939611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1246399266.008754</v>
+        <v>1378295795.179918</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1762449608313721</v>
+        <v>0.1328232521218262</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01908323096588263</v>
+        <v>0.01671311942368319</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>623199722.1530017</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2475109900.392045</v>
+        <v>2370984737.526305</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1028017701977268</v>
+        <v>0.1316732658355577</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0200801908346139</v>
+        <v>0.01945841422694175</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>21</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1237554925.90134</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1677260745.72508</v>
+        <v>2071216632.835394</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08338313679507756</v>
+        <v>0.09367170285152532</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03340573745666651</v>
+        <v>0.04181266922220848</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>12</v>
-      </c>
-      <c r="J21" t="n">
-        <v>838630439.6354502</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2907601104.868438</v>
+        <v>3681277190.84735</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1060224244703765</v>
+        <v>0.1371543649865936</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05189656817499346</v>
+        <v>0.04702205518555118</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>36</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1453800619.452374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1548380976.299515</v>
+        <v>1197413604.278133</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1361062816508805</v>
+        <v>0.153802081139671</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04650313065798218</v>
+        <v>0.04550905011894515</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>774190465.88732</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2771427681.730205</v>
+        <v>2853865444.628145</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1396650935971452</v>
+        <v>0.1130700200191866</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02629542794634766</v>
+        <v>0.02738836717119624</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>38</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1385713891.402115</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1025660049.535929</v>
+        <v>1108528878.740243</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07577906673233076</v>
+        <v>0.104789154816889</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01962818312868762</v>
+        <v>0.02327250843216511</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>512830082.8010428</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>898147620.6108938</v>
+        <v>925295169.4374921</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09678263938112427</v>
+        <v>0.08670587388102875</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03691628482605033</v>
+        <v>0.03533404563369297</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>449073757.4085313</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3490250464.461455</v>
+        <v>4277169294.495035</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1212545640697021</v>
+        <v>0.09908101409654907</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01761791678586775</v>
+        <v>0.0169310262115825</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>29</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1745125267.628346</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2999932535.949603</v>
+        <v>3566711178.028008</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1102591719366842</v>
+        <v>0.1439239303491739</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04939920338878816</v>
+        <v>0.04358318470407969</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>41</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1499966279.133141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4157511587.863289</v>
+        <v>4892604384.607855</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1146901295979883</v>
+        <v>0.1293713371771572</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03778599509518265</v>
+        <v>0.03447454373620717</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>57</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2078755799.78867</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1914262126.883363</v>
+        <v>1637950106.011697</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1170208412057743</v>
+        <v>0.1222457414407148</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03298372646566738</v>
+        <v>0.03758648865809854</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>957131091.118131</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1488869467.178866</v>
+        <v>1356003741.765087</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1055913220830407</v>
+        <v>0.1076895848496238</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05023710766709179</v>
+        <v>0.049584061217547</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>744434617.009419</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1396718238.298162</v>
+        <v>1709032051.787083</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1165447034388292</v>
+        <v>0.0923268415616567</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02945022747635831</v>
+        <v>0.02588189001857244</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>698359166.0337825</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2165289306.060946</v>
+        <v>2522663125.946567</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1985124927462404</v>
+        <v>0.1794861052131222</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04142019955184262</v>
+        <v>0.04277909809596536</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>39</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1082644719.690214</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1041941742.749701</v>
+        <v>1013490701.076056</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1221897976310724</v>
+        <v>0.09679123601297594</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02087127912929986</v>
+        <v>0.01814407172573894</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>520970902.3479515</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1165781448.493043</v>
+        <v>1161410584.94015</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08702395429410026</v>
+        <v>0.07507188258923814</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03106492355736932</v>
+        <v>0.03379632048018028</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>582890706.4202199</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2642356471.886347</v>
+        <v>2918502129.26381</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1521687120839793</v>
+        <v>0.17924379215054</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02184006804438737</v>
+        <v>0.02818101228579854</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>33</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1321178246.47552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2295237416.736978</v>
+        <v>2558503275.04645</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1049243972639193</v>
+        <v>0.1123118882320821</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03878786923205905</v>
+        <v>0.03037560224431831</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>33</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1147618776.239523</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1597502767.767635</v>
+        <v>1580366503.00806</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1182791911825862</v>
+        <v>0.107018752869395</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02494410613817694</v>
+        <v>0.03644840780764697</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>798751419.3192277</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1420954170.733219</v>
+        <v>1950438113.260962</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1351565257117553</v>
+        <v>0.159668271148722</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02365527332147028</v>
+        <v>0.02324275795264621</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>710477167.7502387</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1490007822.606715</v>
+        <v>1762917743.129628</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1266342107872469</v>
+        <v>0.1258959670722641</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04225345169116308</v>
+        <v>0.04048388104026146</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>745003879.9509295</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2409018831.5247</v>
+        <v>1859203910.902271</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1157415063804319</v>
+        <v>0.1612558378327897</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04487406796178437</v>
+        <v>0.04307231376580832</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>33</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1204509449.900176</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3382063954.817122</v>
+        <v>3271944734.789492</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08578615265931698</v>
+        <v>0.1222437886366041</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03118619637393164</v>
+        <v>0.03437636792891129</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>44</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1691031964.088381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2260962922.30728</v>
+        <v>2391685026.487309</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1864593807223921</v>
+        <v>0.2037839243518563</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02188132361003687</v>
+        <v>0.02266014457530398</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>42</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1130481533.811011</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1853457983.789274</v>
+        <v>2035040294.707814</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0885311180776749</v>
+        <v>0.09308281956886409</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03167309626503692</v>
+        <v>0.02738617247096894</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>926729068.9427987</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1710132053.174343</v>
+        <v>2081186343.806324</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1480248204793714</v>
+        <v>0.1907239120897372</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04813063665750412</v>
+        <v>0.03399784534894752</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>855065988.1852642</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3645981344.42646</v>
+        <v>4804873942.835204</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1198475274634872</v>
+        <v>0.1639504935721128</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05116316738579775</v>
+        <v>0.04367047291273633</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>46</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1822990621.442589</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3436042755.231788</v>
+        <v>4469642818.618285</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1614055385203879</v>
+        <v>0.1847590129188366</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05722418773922448</v>
+        <v>0.04303085194904957</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>35</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1718021344.742481</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3676593874.566828</v>
+        <v>3722406085.307675</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08602855510113837</v>
+        <v>0.07010680408980477</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03590775374712445</v>
+        <v>0.03457155034939028</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>43</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1838296990.399933</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1755787583.024203</v>
+        <v>1330422847.92967</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1748122989285666</v>
+        <v>0.1646892184068641</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02805433244723392</v>
+        <v>0.04111390645273</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>877893783.7028023</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3251933305.107182</v>
+        <v>2547375274.018917</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1196762535593476</v>
+        <v>0.1278561898789423</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03993938178276916</v>
+        <v>0.03380289681549009</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>44</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1625966694.427282</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1263180705.621794</v>
+        <v>1188509253.0253</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1945382682024674</v>
+        <v>0.1595997409926557</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04406955529780929</v>
+        <v>0.03502294412563765</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>631590394.0740207</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4249555898.505173</v>
+        <v>4994116831.393328</v>
       </c>
       <c r="F52" t="n">
-        <v>0.112192540946031</v>
+        <v>0.1011789768011338</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05872197155028691</v>
+        <v>0.0496278636155697</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>53</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2124777990.996914</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2624267355.576941</v>
+        <v>2842007974.328925</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1409376993751844</v>
+        <v>0.2005402733414113</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02189937138575189</v>
+        <v>0.03258299725890931</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>37</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1312133736.079845</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4792361801.596951</v>
+        <v>4042885996.942664</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1167972527648178</v>
+        <v>0.1402011921942024</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03456596560968622</v>
+        <v>0.03884304437633749</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>44</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2396181027.035367</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4224821913.678758</v>
+        <v>4349083877.665416</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1385726559259876</v>
+        <v>0.2189550431761521</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02290987292675095</v>
+        <v>0.02917191376672614</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>35</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2112410941.606039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1327605193.633359</v>
+        <v>1342809643.225008</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0993635509935287</v>
+        <v>0.1531298439838981</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04632678101809651</v>
+        <v>0.05438378379451703</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>663802664.5902036</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3573940514.084888</v>
+        <v>3628031387.979469</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1722393185421166</v>
+        <v>0.16058930973353</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01902710821378223</v>
+        <v>0.02304539220875523</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>41</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1786970309.592086</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1510238431.11839</v>
+        <v>1208080199.183331</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1981713514260142</v>
+        <v>0.1772766722282395</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03890644710722523</v>
+        <v>0.03686340429141741</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>755119245.7059041</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4649042122.437775</v>
+        <v>4919634636.034996</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1236071721356078</v>
+        <v>0.1125444009647061</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04965867506765478</v>
+        <v>0.0419111161489063</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>35</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2324521005.811924</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3315348392.243322</v>
+        <v>3752906240.772831</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1716718117783928</v>
+        <v>0.1444840118571681</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02473828021656083</v>
+        <v>0.02941548097064573</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>40</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1657674299.496997</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2778924415.037302</v>
+        <v>3219312591.263384</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1604437610498213</v>
+        <v>0.135632974563053</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0231582035242915</v>
+        <v>0.03095604846239009</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>43</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1389462208.784427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1306820923.539656</v>
+        <v>1777612507.388196</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1253037390634074</v>
+        <v>0.1420711504657861</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03846777163605063</v>
+        <v>0.04740264094433731</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>653410415.8109195</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4652322579.572165</v>
+        <v>4276081771.613761</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06646141303571101</v>
+        <v>0.1072719159577527</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04198908543119933</v>
+        <v>0.03021908457717807</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>37</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2326161323.007979</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4200494926.800662</v>
+        <v>3882383521.478218</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1764767016740197</v>
+        <v>0.172635467951489</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03484599800695477</v>
+        <v>0.03557062818195741</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>40</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2100247513.31759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4425757684.536539</v>
+        <v>3898059478.664937</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1608512111811839</v>
+        <v>0.1292510260572801</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02589029577459742</v>
+        <v>0.02730962294652688</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>46</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2212878835.379346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4843527455.698336</v>
+        <v>5387031459.607479</v>
       </c>
       <c r="F66" t="n">
-        <v>0.116304883402216</v>
+        <v>0.1007606589019478</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04759154057477632</v>
+        <v>0.03910022664974507</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>38</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2421763746.610154</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2483938737.830319</v>
+        <v>2401304622.465271</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0968543447889057</v>
+        <v>0.08106158890025657</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04856647380649309</v>
+        <v>0.03125951575898976</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>40</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1241969430.851442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5924107314.392132</v>
+        <v>5357449898.061375</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1154315664105416</v>
+        <v>0.1552691149031275</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04071299225665637</v>
+        <v>0.0441113925513645</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>41</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2962053769.537265</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1751939428.325498</v>
+        <v>1737236949.075474</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1503171082421877</v>
+        <v>0.1247878209593537</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04812921157441781</v>
+        <v>0.05504401169678105</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>875969686.9941622</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3368283640.162391</v>
+        <v>2934668516.401015</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1029170006296701</v>
+        <v>0.06481053179836657</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04636360831465404</v>
+        <v>0.04605843724898043</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>38</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1684141820.947369</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5444386169.534208</v>
+        <v>3994127895.448284</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1532557658741509</v>
+        <v>0.1739139680922623</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03349808744097323</v>
+        <v>0.02663998729667195</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>47</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2722193223.578633</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2170782425.512281</v>
+        <v>1897217560.339289</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1048350381464857</v>
+        <v>0.06714059184756854</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04958841723866026</v>
+        <v>0.03571825879758165</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1085391131.519454</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2696961975.693388</v>
+        <v>2927137266.455972</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09034258895474005</v>
+        <v>0.07618217636111858</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05271741845944273</v>
+        <v>0.04802709192373641</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>49</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1348481011.531393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2849801434.720145</v>
+        <v>2644078341.606447</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1827485463606104</v>
+        <v>0.1505563740087373</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02534788601351754</v>
+        <v>0.02924114963048701</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>45</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1424900795.704222</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2353028437.666592</v>
+        <v>1833633728.806745</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1031412163545022</v>
+        <v>0.1616447001751843</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0262229138246447</v>
+        <v>0.02931761448069498</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1176514149.834216</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4207693004.226884</v>
+        <v>3468976003.58915</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09102353767102049</v>
+        <v>0.1001158683120578</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02692592092897894</v>
+        <v>0.03206466762350089</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>28</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2103846495.50537</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2289537377.217585</v>
+        <v>2299259885.093064</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1467951526167275</v>
+        <v>0.1289697782156877</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03134099123225456</v>
+        <v>0.0265158054816973</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1144768792.831201</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4085055396.028152</v>
+        <v>4749060376.73215</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09819566236118692</v>
+        <v>0.1205752198496614</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03958163322938983</v>
+        <v>0.04145552018005687</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>45</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2042527657.624848</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1870884666.418924</v>
+        <v>1381762535.9497</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1123390913371255</v>
+        <v>0.1381983103152178</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02588791236652955</v>
+        <v>0.02879820679773454</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>935442432.2513677</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4118692526.259798</v>
+        <v>3971409560.472869</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0935714112832241</v>
+        <v>0.09512837572555437</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03609134672473141</v>
+        <v>0.03361052374043624</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>27</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2059346268.453618</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3935343220.055328</v>
+        <v>4162285348.54894</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1235792825387766</v>
+        <v>0.1180100755818436</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02708017266535909</v>
+        <v>0.02244644226226059</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>30</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1967671570.780888</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5132779013.725467</v>
+        <v>4013876053.298536</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1869813697390852</v>
+        <v>0.1680242045818938</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02647305232663986</v>
+        <v>0.02857971759630926</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>46</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2566389483.313523</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2436359411.54544</v>
+        <v>2414553661.121885</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1157940658171812</v>
+        <v>0.1448822815485088</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0389293605802235</v>
+        <v>0.03097915344910527</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1218179745.344735</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2205680039.652812</v>
+        <v>2123027329.322245</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08998237084937</v>
+        <v>0.07801437066728217</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03876241767399533</v>
+        <v>0.03435574845911326</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1102839994.666397</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2336709387.273591</v>
+        <v>3453960672.484376</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1565130186719305</v>
+        <v>0.1156622571376823</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04981174585803232</v>
+        <v>0.03882747572306546</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>49</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1168354680.508548</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2355498237.622387</v>
+        <v>2455363469.314842</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1465432489460867</v>
+        <v>0.1533785718355689</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01764056557666888</v>
+        <v>0.01728154497726873</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>14</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1177749195.831604</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>972323116.7026724</v>
+        <v>1106897093.598</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1212751305129885</v>
+        <v>0.1630462644293676</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03994612543961892</v>
+        <v>0.03318121881622604</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>486161555.5181685</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2566224174.050226</v>
+        <v>3643615409.083512</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1108749520097427</v>
+        <v>0.1597394617157436</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03605222575188405</v>
+        <v>0.02534114256900864</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>51</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1283112074.551821</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2161396004.074255</v>
+        <v>2366974272.515013</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1246213547206898</v>
+        <v>0.1051224205355529</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03245210013207722</v>
+        <v>0.02941542667406257</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>45</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1080698101.570083</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2063241079.660778</v>
+        <v>1509784195.67767</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1241768513750001</v>
+        <v>0.1162795024826965</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04123940382353276</v>
+        <v>0.05539580878325973</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1031620621.576144</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1300751992.81012</v>
+        <v>1326656521.201261</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1536111475232041</v>
+        <v>0.1848502284082136</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05936870600347553</v>
+        <v>0.04210014314955621</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>650376061.8486484</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2320957458.087232</v>
+        <v>1972940724.062899</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08447639650193949</v>
+        <v>0.0745514822503181</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03155344855658521</v>
+        <v>0.03146272648824277</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>30</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1160478699.425635</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4047119259.061056</v>
+        <v>4127093822.985664</v>
       </c>
       <c r="F93" t="n">
-        <v>0.108037594672978</v>
+        <v>0.122628234458504</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04250863011451665</v>
+        <v>0.05452763836523158</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>40</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2023559627.065733</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1639711411.878118</v>
+        <v>2021823851.448294</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1502925195348253</v>
+        <v>0.110201548877705</v>
       </c>
       <c r="G94" t="n">
-        <v>0.038756598431149</v>
+        <v>0.04114104788525137</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>819855657.3143445</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2067567853.958278</v>
+        <v>2120715677.710318</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1308785120165735</v>
+        <v>0.09829040804716811</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0417981609290441</v>
+        <v>0.03491852784038307</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>31</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1033783994.497195</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2274762994.578069</v>
+        <v>1995267582.284892</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1308487178051708</v>
+        <v>0.1267614759040686</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0293073397163969</v>
+        <v>0.04249494096066396</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1137381454.86212</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4259706280.059473</v>
+        <v>3918018699.331921</v>
       </c>
       <c r="F97" t="n">
-        <v>0.126662005454091</v>
+        <v>0.1386321582093951</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02733769003572093</v>
+        <v>0.01979963419521967</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>43</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2129853217.251576</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2479956277.693759</v>
+        <v>2461042514.976123</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09765601637650972</v>
+        <v>0.1026055578685813</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02955278812775071</v>
+        <v>0.02043914710252908</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>34</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1239978088.238558</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2635671909.935651</v>
+        <v>2555662164.061621</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09010535515393608</v>
+        <v>0.1466263641136867</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0274367606158021</v>
+        <v>0.02942155225095936</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>41</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1317835914.45459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4088166118.30258</v>
+        <v>3149507040.377166</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1505051627789257</v>
+        <v>0.1675339170886247</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01809978655355381</v>
+        <v>0.02474818799061817</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>39</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2044083136.816077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3443862102.254281</v>
+        <v>2361185305.356719</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1935104025594881</v>
+        <v>0.1854203288946878</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04633898526075268</v>
+        <v>0.05825962222532329</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>54</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1721931198.83007</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_129.xlsx
+++ b/output/fit_clients/fit_round_129.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2488031443.540639</v>
+        <v>2381983504.274089</v>
       </c>
       <c r="F2" t="n">
-        <v>0.107563031283903</v>
+        <v>0.107133272970568</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03524860425717138</v>
+        <v>0.03458159663435793</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1683443122.469085</v>
+        <v>2184650356.015618</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1415172121422208</v>
+        <v>0.1111398785377962</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0466819178236973</v>
+        <v>0.04255714318755677</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3955245057.26524</v>
+        <v>3914320177.629899</v>
       </c>
       <c r="F4" t="n">
-        <v>0.116363164191606</v>
+        <v>0.1461917299325231</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03268380831926251</v>
+        <v>0.03166462915396545</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3467627880.061518</v>
+        <v>3568913575.792946</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1059588846253267</v>
+        <v>0.09356520607875349</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03381198019288437</v>
+        <v>0.03920963271977814</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2435136762.509159</v>
+        <v>1960067384.930193</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1322269112627927</v>
+        <v>0.1131228722675841</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05553049901161466</v>
+        <v>0.05176273242703461</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2998105588.836793</v>
+        <v>2923342353.065207</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07691338954929688</v>
+        <v>0.06418690128255058</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04024542981304252</v>
+        <v>0.04666403330330464</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2816009336.080375</v>
+        <v>2823215630.885261</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1553223491925787</v>
+        <v>0.1641602936076661</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02811253567481182</v>
+        <v>0.02716873576555706</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1473210104.181375</v>
+        <v>1726223617.625954</v>
       </c>
       <c r="F9" t="n">
-        <v>0.127285733169907</v>
+        <v>0.1299806902339935</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02669675852142123</v>
+        <v>0.02440339767480643</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5468229273.916425</v>
+        <v>5582850207.078191</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1546124752182371</v>
+        <v>0.1561392021642419</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04114577667507807</v>
+        <v>0.04903574425399933</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2905474867.067464</v>
+        <v>2669528892.17503</v>
       </c>
       <c r="F11" t="n">
-        <v>0.161801333410038</v>
+        <v>0.1910283062449865</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04455408414596009</v>
+        <v>0.0476427564734974</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2762774889.848726</v>
+        <v>2468057466.51258</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1395646916683093</v>
+        <v>0.1724656783617784</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0518298647261051</v>
+        <v>0.04888194435735609</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4285305959.467225</v>
+        <v>5004309346.202393</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08912742124841312</v>
+        <v>0.07288428867007486</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0205378472402394</v>
+        <v>0.02047404568307153</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3199881822.078919</v>
+        <v>3369963863.53595</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1415427596833772</v>
+        <v>0.1751381753986205</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04082922529207297</v>
+        <v>0.03604993032161267</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1712926683.186666</v>
+        <v>1587501790.15924</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1075083975882115</v>
+        <v>0.1091760173321809</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04770190072928545</v>
+        <v>0.04312751082395743</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2657747344.088106</v>
+        <v>2747811478.973073</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1049493346251318</v>
+        <v>0.1144912918440792</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04091477948310223</v>
+        <v>0.05018980337042502</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4850546964.127153</v>
+        <v>3770616542.744909</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1291274747546616</v>
+        <v>0.1423023242461323</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03775296896660679</v>
+        <v>0.03778619874354203</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3825488417.030148</v>
+        <v>3280832177.816656</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1273058188804547</v>
+        <v>0.1275764953433912</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02581225224099197</v>
+        <v>0.02111283407110899</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1378295795.179918</v>
+        <v>983049826.6395288</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1328232521218262</v>
+        <v>0.1593355473230318</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01671311942368319</v>
+        <v>0.02137215053731398</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2370984737.526305</v>
+        <v>1823338368.798549</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1316732658355577</v>
+        <v>0.1308557035077579</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01945841422694175</v>
+        <v>0.02271893156669288</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2071216632.835394</v>
+        <v>1858079410.585171</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09367170285152532</v>
+        <v>0.07363529621461717</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04181266922220848</v>
+        <v>0.03962476757914873</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3681277190.84735</v>
+        <v>3601561838.821321</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1371543649865936</v>
+        <v>0.09928331007779541</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04702205518555118</v>
+        <v>0.04155989047985023</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1197413604.278133</v>
+        <v>1500535585.686765</v>
       </c>
       <c r="F23" t="n">
-        <v>0.153802081139671</v>
+        <v>0.1698746047358261</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04550905011894515</v>
+        <v>0.03658520901209131</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2853865444.628145</v>
+        <v>3731006917.459339</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1130700200191866</v>
+        <v>0.09556544096579853</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02738836717119624</v>
+        <v>0.03312831665305449</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1108528878.740243</v>
+        <v>1057974921.645661</v>
       </c>
       <c r="F25" t="n">
-        <v>0.104789154816889</v>
+        <v>0.1135705659149696</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02327250843216511</v>
+        <v>0.02863391387079249</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>925295169.4374921</v>
+        <v>954371722.93224</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08670587388102875</v>
+        <v>0.07923152081887425</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03533404563369297</v>
+        <v>0.02487467954456749</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4277169294.495035</v>
+        <v>3147883036.463535</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09908101409654907</v>
+        <v>0.09674950020204966</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0169310262115825</v>
+        <v>0.0173252360121603</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3566711178.028008</v>
+        <v>3203721107.345373</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1439239303491739</v>
+        <v>0.1518383874748781</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04358318470407969</v>
+        <v>0.03152628594711011</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4892604384.607855</v>
+        <v>4635246168.332775</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1293713371771572</v>
+        <v>0.1504753797625618</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03447454373620717</v>
+        <v>0.02817955526473508</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1637950106.011697</v>
+        <v>2092891629.626387</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1222457414407148</v>
+        <v>0.124605515338364</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03758648865809854</v>
+        <v>0.0334274628287529</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1356003741.765087</v>
+        <v>1401638198.743666</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1076895848496238</v>
+        <v>0.09383426264816776</v>
       </c>
       <c r="G31" t="n">
-        <v>0.049584061217547</v>
+        <v>0.04325580057767451</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1709032051.787083</v>
+        <v>1705499571.861306</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0923268415616567</v>
+        <v>0.1017318671852463</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02588189001857244</v>
+        <v>0.03118545440549661</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2522663125.946567</v>
+        <v>1959014114.278576</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1794861052131222</v>
+        <v>0.1730170743454709</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04277909809596536</v>
+        <v>0.0433326685068128</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1013490701.076056</v>
+        <v>1162462347.493102</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09679123601297594</v>
+        <v>0.11063396669907</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01814407172573894</v>
+        <v>0.02531102865396035</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1161410584.94015</v>
+        <v>979837216.5296917</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07507188258923814</v>
+        <v>0.07684908225620507</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03379632048018028</v>
+        <v>0.03603665086381224</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2918502129.26381</v>
+        <v>2865424950.568428</v>
       </c>
       <c r="F36" t="n">
-        <v>0.17924379215054</v>
+        <v>0.1766935411072346</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02818101228579854</v>
+        <v>0.02873204788813459</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2558503275.04645</v>
+        <v>1794638649.652759</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1123118882320821</v>
+        <v>0.07180469660950924</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03037560224431831</v>
+        <v>0.03713418170899502</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1580366503.00806</v>
+        <v>2195251594.041087</v>
       </c>
       <c r="F38" t="n">
-        <v>0.107018752869395</v>
+        <v>0.1103893696086059</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03644840780764697</v>
+        <v>0.02678909354243958</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1950438113.260962</v>
+        <v>1846917416.455497</v>
       </c>
       <c r="F39" t="n">
-        <v>0.159668271148722</v>
+        <v>0.1278130162478382</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02324275795264621</v>
+        <v>0.03025361428948231</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1762917743.129628</v>
+        <v>1591799491.882064</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1258959670722641</v>
+        <v>0.1154720321647832</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04048388104026146</v>
+        <v>0.05976046655072287</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1859203910.902271</v>
+        <v>2734693975.330472</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1612558378327897</v>
+        <v>0.1135608517522821</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04307231376580832</v>
+        <v>0.03303334261542949</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3271944734.789492</v>
+        <v>3242233176.060239</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1222437886366041</v>
+        <v>0.08276300925077699</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03437636792891129</v>
+        <v>0.03787968269326106</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2391685026.487309</v>
+        <v>1857227156.441659</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2037839243518563</v>
+        <v>0.2030151337735999</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02266014457530398</v>
+        <v>0.01621767083166869</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2035040294.707814</v>
+        <v>2012674265.364995</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09308281956886409</v>
+        <v>0.0678476610242475</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02738617247096894</v>
+        <v>0.02335508102694678</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2081186343.806324</v>
+        <v>1749850107.651876</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1907239120897372</v>
+        <v>0.1422437465323855</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03399784534894752</v>
+        <v>0.04258817871306701</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4804873942.835204</v>
+        <v>3822546345.157324</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1639504935721128</v>
+        <v>0.1676057240130389</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04367047291273633</v>
+        <v>0.04619941506227046</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4469642818.618285</v>
+        <v>5132219949.443587</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1847590129188366</v>
+        <v>0.1966249426251176</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04303085194904957</v>
+        <v>0.03784401089161238</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3722406085.307675</v>
+        <v>3562391482.013797</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07010680408980477</v>
+        <v>0.07594378635845782</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03457155034939028</v>
+        <v>0.03761064134855008</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1330422847.92967</v>
+        <v>1528478184.310899</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1646892184068641</v>
+        <v>0.1409195375826167</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04111390645273</v>
+        <v>0.03845990728546527</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2547375274.018917</v>
+        <v>2994309669.274986</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1278561898789423</v>
+        <v>0.1160848053037133</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03380289681549009</v>
+        <v>0.03967501906859899</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1188509253.0253</v>
+        <v>932240620.7737168</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1595997409926557</v>
+        <v>0.1799306296939855</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03502294412563765</v>
+        <v>0.05381906608142024</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1886,16 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4994116831.393328</v>
+        <v>3623688781.875917</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1011789768011338</v>
+        <v>0.09105627135419517</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0496278636155697</v>
+        <v>0.05474070685311641</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1914,16 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2842007974.328925</v>
+        <v>3502579751.008873</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2005402733414113</v>
+        <v>0.1509275065451659</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03258299725890931</v>
+        <v>0.02937243494757034</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4042885996.942664</v>
+        <v>4468834384.777111</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1402011921942024</v>
+        <v>0.1278557260572785</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03884304437633749</v>
+        <v>0.05016222322689454</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4349083877.665416</v>
+        <v>3526896525.686574</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2189550431761521</v>
+        <v>0.1787360127292202</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02917191376672614</v>
+        <v>0.03103944470681407</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1342809643.225008</v>
+        <v>1595219472.785285</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1531298439838981</v>
+        <v>0.1608996345373873</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05438378379451703</v>
+        <v>0.04945105068454644</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,16 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3628031387.979469</v>
+        <v>3399476749.5713</v>
       </c>
       <c r="F57" t="n">
-        <v>0.16058930973353</v>
+        <v>0.1339970259099939</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02304539220875523</v>
+        <v>0.02112622139418773</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1208080199.183331</v>
+        <v>1897637262.532286</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1772766722282395</v>
+        <v>0.1305761771839009</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03686340429141741</v>
+        <v>0.03851962991972022</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4919634636.034996</v>
+        <v>3546366604.199217</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1125444009647061</v>
+        <v>0.1170000734317083</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0419111161489063</v>
+        <v>0.03018786328677341</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3752906240.772831</v>
+        <v>2315050219.194029</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1444840118571681</v>
+        <v>0.1942505573311498</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02941548097064573</v>
+        <v>0.03160632880970349</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3219312591.263384</v>
+        <v>3165178658.128201</v>
       </c>
       <c r="F61" t="n">
-        <v>0.135632974563053</v>
+        <v>0.1137057782192229</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03095604846239009</v>
+        <v>0.0205604939356214</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1777612507.388196</v>
+        <v>1359587348.775457</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1420711504657861</v>
+        <v>0.1231715079197242</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04740264094433731</v>
+        <v>0.03922460239433986</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4276081771.613761</v>
+        <v>4025738660.003969</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1072719159577527</v>
+        <v>0.08108019081240354</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03021908457717807</v>
+        <v>0.03402023229102893</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3882383521.478218</v>
+        <v>5264320098.998816</v>
       </c>
       <c r="F64" t="n">
-        <v>0.172635467951489</v>
+        <v>0.1873077760976736</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03557062818195741</v>
+        <v>0.0222695436555339</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3898059478.664937</v>
+        <v>5062242939.137052</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1292510260572801</v>
+        <v>0.1579598331336176</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02730962294652688</v>
+        <v>0.02395446666075497</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5387031459.607479</v>
+        <v>4881297542.942903</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1007606589019478</v>
+        <v>0.1096385220552338</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03910022664974507</v>
+        <v>0.04562791180784506</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2401304622.465271</v>
+        <v>2586237446.485954</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08106158890025657</v>
+        <v>0.07276115495326363</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03125951575898976</v>
+        <v>0.05138603317385151</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5357449898.061375</v>
+        <v>5250974243.837934</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1552691149031275</v>
+        <v>0.1176491166677782</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0441113925513645</v>
+        <v>0.03116072511593188</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1737236949.075474</v>
+        <v>2121897626.226378</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1247878209593537</v>
+        <v>0.1302087955956057</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05504401169678105</v>
+        <v>0.05220422750084475</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2934668516.401015</v>
+        <v>3372298259.59305</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06481053179836657</v>
+        <v>0.08734382482775485</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04605843724898043</v>
+        <v>0.04102890218451082</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3994127895.448284</v>
+        <v>3540010256.631692</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1739139680922623</v>
+        <v>0.1703535227504449</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02663998729667195</v>
+        <v>0.02597657701681727</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1897217560.339289</v>
+        <v>1788131089.555897</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06714059184756854</v>
+        <v>0.07464760134454111</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03571825879758165</v>
+        <v>0.04377230367679556</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2927137266.455972</v>
+        <v>3442303839.077363</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07618217636111858</v>
+        <v>0.0801506249574849</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04802709192373641</v>
+        <v>0.05005025051289783</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2644078341.606447</v>
+        <v>3386826149.064394</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1505563740087373</v>
+        <v>0.1347185248885359</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02924114963048701</v>
+        <v>0.02158765912603894</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1833633728.806745</v>
+        <v>2222536990.659554</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1616447001751843</v>
+        <v>0.1423906374322503</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02931761448069498</v>
+        <v>0.02538657698022486</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3468976003.58915</v>
+        <v>4251837392.763032</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1001158683120578</v>
+        <v>0.1134609641510992</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03206466762350089</v>
+        <v>0.03061234866187533</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2299259885.093064</v>
+        <v>1643087992.317775</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1289697782156877</v>
+        <v>0.1786547155787967</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0265158054816973</v>
+        <v>0.02938077464813003</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4749060376.73215</v>
+        <v>2991074161.894583</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1205752198496614</v>
+        <v>0.134029259543534</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04145552018005687</v>
+        <v>0.05430024434577536</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1381762535.9497</v>
+        <v>1651631611.586801</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1381983103152178</v>
+        <v>0.1679963431062211</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02879820679773454</v>
+        <v>0.02567376896278227</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3971409560.472869</v>
+        <v>4260574391.554533</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09512837572555437</v>
+        <v>0.0863647734556825</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03361052374043624</v>
+        <v>0.03756820412973583</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4162285348.54894</v>
+        <v>3615855804.496567</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1180100755818436</v>
+        <v>0.1045460917669559</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02244644226226059</v>
+        <v>0.03033679323143653</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4013876053.298536</v>
+        <v>3477269376.159406</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1680242045818938</v>
+        <v>0.1346749886225448</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02857971759630926</v>
+        <v>0.01787395103330186</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2414553661.121885</v>
+        <v>2449993029.069137</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1448822815485088</v>
+        <v>0.09535516280556031</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03097915344910527</v>
+        <v>0.04180786969121718</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2123027329.322245</v>
+        <v>1694342986.137071</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07801437066728217</v>
+        <v>0.07427493174621243</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03435574845911326</v>
+        <v>0.03472831374550973</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3453960672.484376</v>
+        <v>3107881794.405138</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1156622571376823</v>
+        <v>0.1247402116877682</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03882747572306546</v>
+        <v>0.03476527861807006</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2455363469.314842</v>
+        <v>2306783251.948433</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1533785718355689</v>
+        <v>0.1595770135917571</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01728154497726873</v>
+        <v>0.01725795409094617</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1106897093.598</v>
+        <v>1291864768.051291</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1630462644293676</v>
+        <v>0.1895857552370196</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03318121881622604</v>
+        <v>0.03488154157247546</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3643615409.083512</v>
+        <v>2990510212.531763</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1597394617157436</v>
+        <v>0.1316376696902181</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02534114256900864</v>
+        <v>0.03706824142240424</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2366974272.515013</v>
+        <v>3265165637.599979</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1051224205355529</v>
+        <v>0.1181576119571096</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02941542667406257</v>
+        <v>0.03517926895593985</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1509784195.67767</v>
+        <v>2090195158.545372</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1162795024826965</v>
+        <v>0.1381246419349028</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05539580878325973</v>
+        <v>0.03595287225516343</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1326656521.201261</v>
+        <v>1828560894.931833</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1848502284082136</v>
+        <v>0.1682887019126776</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04210014314955621</v>
+        <v>0.04243825477327234</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1972940724.062899</v>
+        <v>2694351504.775899</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0745514822503181</v>
+        <v>0.09660439354935278</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03146272648824277</v>
+        <v>0.04430497826206981</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4127093822.985664</v>
+        <v>4921007177.063272</v>
       </c>
       <c r="F93" t="n">
-        <v>0.122628234458504</v>
+        <v>0.1345874822344259</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05452763836523158</v>
+        <v>0.04735931803712888</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2021823851.448294</v>
+        <v>2006929442.26834</v>
       </c>
       <c r="F94" t="n">
-        <v>0.110201548877705</v>
+        <v>0.1061077838379011</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04114104788525137</v>
+        <v>0.03017434819748591</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2120715677.710318</v>
+        <v>2674189822.921339</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09829040804716811</v>
+        <v>0.09177170244671362</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03491852784038307</v>
+        <v>0.04663827918417768</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1995267582.284892</v>
+        <v>1646658718.964515</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1267614759040686</v>
+        <v>0.1273719785483373</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04249494096066396</v>
+        <v>0.03423023949491345</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3918018699.331921</v>
+        <v>5339042355.912364</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1386321582093951</v>
+        <v>0.1247417267212849</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01979963419521967</v>
+        <v>0.02778300130966347</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2461042514.976123</v>
+        <v>3930937960.8656</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1026055578685813</v>
+        <v>0.07946330718772306</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02043914710252908</v>
+        <v>0.0259628924247767</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2555662164.061621</v>
+        <v>2271793956.583577</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1466263641136867</v>
+        <v>0.09083008091160001</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02942155225095936</v>
+        <v>0.03527516028973804</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3149507040.377166</v>
+        <v>4383022562.507071</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1675339170886247</v>
+        <v>0.1573091467620153</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02474818799061817</v>
+        <v>0.01910166232591231</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2361185305.356719</v>
+        <v>2532221562.907248</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1854203288946878</v>
+        <v>0.139734775242396</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05825962222532329</v>
+        <v>0.05791492755314979</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_129.xlsx
+++ b/output/fit_clients/fit_round_129.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2381983504.274089</v>
+        <v>1636256943.658293</v>
       </c>
       <c r="F2" t="n">
-        <v>0.107133272970568</v>
+        <v>0.08779761795670764</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03458159663435793</v>
+        <v>0.03524696827952745</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2184650356.015618</v>
+        <v>2056088455.306328</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1111398785377962</v>
+        <v>0.1698415395030276</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04255714318755677</v>
+        <v>0.0473927625353989</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3914320177.629899</v>
+        <v>3469500358.344464</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1461917299325231</v>
+        <v>0.1135819869371422</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03166462915396545</v>
+        <v>0.03044058941578607</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>77</v>
+      </c>
+      <c r="J4" t="n">
+        <v>128</v>
+      </c>
+      <c r="K4" t="n">
+        <v>119.0046895356538</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3568913575.792946</v>
+        <v>3655955061.247654</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09356520607875349</v>
+        <v>0.0963289513327797</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03920963271977814</v>
+        <v>0.03266639514516019</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>52</v>
+      </c>
+      <c r="J5" t="n">
+        <v>129</v>
+      </c>
+      <c r="K5" t="n">
+        <v>149.0106240155279</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +645,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1960067384.930193</v>
+        <v>2088571837.682405</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1131228722675841</v>
+        <v>0.1031167580066279</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05176273242703461</v>
+        <v>0.04691276492482015</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2923342353.065207</v>
+        <v>2417622695.013797</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06418690128255058</v>
+        <v>0.06704969668492634</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04666403330330464</v>
+        <v>0.03828599811383492</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +715,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2823215630.885261</v>
+        <v>3593707226.084725</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1641602936076661</v>
+        <v>0.1811667445629601</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02716873576555706</v>
+        <v>0.03262961931574474</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>37</v>
+      </c>
+      <c r="J8" t="n">
+        <v>129</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1726223617.625954</v>
+        <v>2071023611.53892</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1299806902339935</v>
+        <v>0.1557074503610814</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02440339767480643</v>
+        <v>0.03184911186962922</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5582850207.078191</v>
+        <v>3928660783.203889</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1561392021642419</v>
+        <v>0.1491266608835256</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04903574425399933</v>
+        <v>0.04643433788963187</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>118</v>
+      </c>
+      <c r="J10" t="n">
+        <v>129</v>
+      </c>
+      <c r="K10" t="n">
+        <v>161.5090631460424</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +816,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2669528892.17503</v>
+        <v>2732445846.061984</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1910283062449865</v>
+        <v>0.1706200706175774</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0476427564734974</v>
+        <v>0.03381253608246143</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>55</v>
+      </c>
+      <c r="J11" t="n">
+        <v>128</v>
+      </c>
+      <c r="K11" t="n">
+        <v>81.28667410923423</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2468057466.51258</v>
+        <v>2875633424.292826</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1724656783617784</v>
+        <v>0.1859741310335729</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04888194435735609</v>
+        <v>0.0538095046189431</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +888,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5004309346.202393</v>
+        <v>3232779869.114529</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07288428867007486</v>
+        <v>0.09211479670232824</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02047404568307153</v>
+        <v>0.0230310861792817</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>63</v>
+      </c>
+      <c r="J13" t="n">
+        <v>128</v>
+      </c>
+      <c r="K13" t="n">
+        <v>102.1165462808858</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +925,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3369963863.53595</v>
+        <v>2936926742.093462</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1751381753986205</v>
+        <v>0.1490356546575504</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03604993032161267</v>
+        <v>0.04205066603532592</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>23</v>
+      </c>
+      <c r="J14" t="n">
+        <v>124</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +966,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1587501790.15924</v>
+        <v>1396173856.121969</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1091760173321809</v>
+        <v>0.0915287016582869</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04312751082395743</v>
+        <v>0.04232278763050396</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +1001,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2747811478.973073</v>
+        <v>1966193006.22452</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1144912918440792</v>
+        <v>0.1072050399007357</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05018980337042502</v>
+        <v>0.03559690942028196</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1030,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3770616542.744909</v>
+        <v>3203060659.06975</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1423023242461323</v>
+        <v>0.170807839760871</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03778619874354203</v>
+        <v>0.04054468983317985</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>62</v>
+      </c>
+      <c r="J17" t="n">
+        <v>127</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3280832177.816656</v>
+        <v>3021823399.444003</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1275764953433912</v>
+        <v>0.1704791965628712</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02111283407110899</v>
+        <v>0.03332228024050441</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>34</v>
+      </c>
+      <c r="J18" t="n">
+        <v>126</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>983049826.6395288</v>
+        <v>1359158363.936592</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1593355473230318</v>
+        <v>0.1770416327478534</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02137215053731398</v>
+        <v>0.02092790891336855</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1823338368.798549</v>
+        <v>2223870673.008175</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1308557035077579</v>
+        <v>0.1000836256867036</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02271893156669288</v>
+        <v>0.02957273299929672</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1858079410.585171</v>
+        <v>2706678687.09475</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07363529621461717</v>
+        <v>0.09910890219390373</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03962476757914873</v>
+        <v>0.04498272617216193</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3601561838.821321</v>
+        <v>3184285667.581028</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09928331007779541</v>
+        <v>0.1032589755796248</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04155989047985023</v>
+        <v>0.04074294669930117</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>33</v>
+      </c>
+      <c r="J22" t="n">
+        <v>123</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1500535585.686765</v>
+        <v>962932178.9828798</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1698746047358261</v>
+        <v>0.1862578906299718</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03658520901209131</v>
+        <v>0.03949829049354256</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3731006917.459339</v>
+        <v>3319430092.173265</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09556544096579853</v>
+        <v>0.1366903869088712</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03312831665305449</v>
+        <v>0.03534911762248191</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>38</v>
+      </c>
+      <c r="J24" t="n">
+        <v>127</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1316,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1057974921.645661</v>
+        <v>1419757637.772464</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1135705659149696</v>
+        <v>0.1164784803959525</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02863391387079249</v>
+        <v>0.02576089202784695</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1351,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>954371722.93224</v>
+        <v>877239223.9744871</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07923152081887425</v>
+        <v>0.1226241577393766</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02487467954456749</v>
+        <v>0.02549464158496722</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1380,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3147883036.463535</v>
+        <v>3824485351.366827</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09674950020204966</v>
+        <v>0.1142860923641425</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0173252360121603</v>
+        <v>0.02536270756592845</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>51</v>
+      </c>
+      <c r="J27" t="n">
+        <v>128</v>
+      </c>
+      <c r="K27" t="n">
+        <v>123.709789130906</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3203721107.345373</v>
+        <v>3224795825.670853</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1518383874748781</v>
+        <v>0.1295979414949886</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03152628594711011</v>
+        <v>0.04841861609709528</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>28</v>
+      </c>
+      <c r="J28" t="n">
+        <v>127</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1458,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4635246168.332775</v>
+        <v>3790724491.801467</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1504753797625618</v>
+        <v>0.1017774918792654</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02817955526473508</v>
+        <v>0.03105442684253304</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>119</v>
+      </c>
+      <c r="J29" t="n">
+        <v>129</v>
+      </c>
+      <c r="K29" t="n">
+        <v>170.8971829958059</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2092891629.626387</v>
+        <v>2247451682.119182</v>
       </c>
       <c r="F30" t="n">
-        <v>0.124605515338364</v>
+        <v>0.1114665058100406</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0334274628287529</v>
+        <v>0.03902175671485317</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1401638198.743666</v>
+        <v>987071892.3593814</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09383426264816776</v>
+        <v>0.0724060533361307</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04325580057767451</v>
+        <v>0.04075534454777022</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1705499571.861306</v>
+        <v>1502194729.094028</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1017318671852463</v>
+        <v>0.09476942093749162</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03118545440549661</v>
+        <v>0.02366405507233751</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1959014114.278576</v>
+        <v>3048013131.224234</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1730170743454709</v>
+        <v>0.1584749752357242</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0433326685068128</v>
+        <v>0.06004349374066782</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1162462347.493102</v>
+        <v>1468375158.982703</v>
       </c>
       <c r="F34" t="n">
-        <v>0.11063396669907</v>
+        <v>0.1024028319607937</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02531102865396035</v>
+        <v>0.01991724144106397</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>979837216.5296917</v>
+        <v>1285350996.099357</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07684908225620507</v>
+        <v>0.102404069128487</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03603665086381224</v>
+        <v>0.02757421499986454</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1705,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2865424950.568428</v>
+        <v>2436838924.203598</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1766935411072346</v>
+        <v>0.1321726298288634</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02873204788813459</v>
+        <v>0.02638465499716371</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1794638649.652759</v>
+        <v>2323923434.50722</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07180469660950924</v>
+        <v>0.09606308318937513</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03713418170899502</v>
+        <v>0.03858521875816109</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2195251594.041087</v>
+        <v>1709560388.024893</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1103893696086059</v>
+        <v>0.08801206858474935</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02678909354243958</v>
+        <v>0.03641429661365557</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1846917416.455497</v>
+        <v>1984025700.826289</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1278130162478382</v>
+        <v>0.118721780655594</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03025361428948231</v>
+        <v>0.02893613988444043</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1591799491.882064</v>
+        <v>1825513390.976123</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1154720321647832</v>
+        <v>0.1454160429561233</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05976046655072287</v>
+        <v>0.0473923585031058</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2734693975.330472</v>
+        <v>2544672157.619841</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1135608517522821</v>
+        <v>0.1057260060314428</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03303334261542949</v>
+        <v>0.03412737810421438</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1909,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3242233176.060239</v>
+        <v>3392245117.519573</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08276300925077699</v>
+        <v>0.08766305211328836</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03787968269326106</v>
+        <v>0.03827675886280671</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>48</v>
+      </c>
+      <c r="J42" t="n">
+        <v>128</v>
+      </c>
+      <c r="K42" t="n">
+        <v>118.9192482058834</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1857227156.441659</v>
+        <v>2472880989.335683</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2030151337735999</v>
+        <v>0.1511077401739719</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01621767083166869</v>
+        <v>0.02060018708464741</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2012674265.364995</v>
+        <v>1592751652.812594</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0678476610242475</v>
+        <v>0.06807610973580906</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02335508102694678</v>
+        <v>0.0323826179200571</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1749850107.651876</v>
+        <v>2296795828.856903</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1422437465323855</v>
+        <v>0.122688910435177</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04258817871306701</v>
+        <v>0.04875080290441805</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2057,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3822546345.157324</v>
+        <v>5492900135.257503</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1676057240130389</v>
+        <v>0.1250776465089515</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04619941506227046</v>
+        <v>0.05233489309588368</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>74</v>
+      </c>
+      <c r="J46" t="n">
+        <v>128</v>
+      </c>
+      <c r="K46" t="n">
+        <v>148.7893067041111</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2088,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5132219949.443587</v>
+        <v>3455803182.3064</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1966249426251176</v>
+        <v>0.1974547015591064</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03784401089161238</v>
+        <v>0.0437381922886038</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>57</v>
+      </c>
+      <c r="J47" t="n">
+        <v>129</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2123,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3562391482.013797</v>
+        <v>3702307460.669137</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07594378635845782</v>
+        <v>0.1045755098565894</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03761064134855008</v>
+        <v>0.02528114300930644</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>51</v>
+      </c>
+      <c r="J48" t="n">
+        <v>128</v>
+      </c>
+      <c r="K48" t="n">
+        <v>140.2707881481071</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2160,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1528478184.310899</v>
+        <v>1988053779.932361</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1409195375826167</v>
+        <v>0.1318992031545671</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03845990728546527</v>
+        <v>0.03406729419124486</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2195,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2994309669.274986</v>
+        <v>3986919588.477382</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1160848053037133</v>
+        <v>0.1532400377372891</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03967501906859899</v>
+        <v>0.04887344650050103</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>44</v>
+      </c>
+      <c r="J50" t="n">
+        <v>129</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>932240620.7737168</v>
+        <v>1041776325.403705</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1799306296939855</v>
+        <v>0.1241414741732123</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05381906608142024</v>
+        <v>0.05325283963558086</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2265,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3623688781.875917</v>
+        <v>4163491542.225626</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09105627135419517</v>
+        <v>0.1125908999621884</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05474070685311641</v>
+        <v>0.05207489309338973</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>98</v>
+      </c>
+      <c r="J52" t="n">
+        <v>129</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3502579751.008873</v>
+        <v>3491074186.818783</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1509275065451659</v>
+        <v>0.1516738192402811</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02937243494757034</v>
+        <v>0.03046388551401962</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>15</v>
+      </c>
+      <c r="J53" t="n">
+        <v>129</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2335,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4468834384.777111</v>
+        <v>3793625090.165842</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1278557260572785</v>
+        <v>0.1623626800488996</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05016222322689454</v>
+        <v>0.0379882318416373</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>59</v>
+      </c>
+      <c r="J54" t="n">
+        <v>128</v>
+      </c>
+      <c r="K54" t="n">
+        <v>146.6503987484686</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2372,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3526896525.686574</v>
+        <v>4607722123.440952</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1787360127292202</v>
+        <v>0.1961606711194643</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03103944470681407</v>
+        <v>0.02852534665725516</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>59</v>
+      </c>
+      <c r="J55" t="n">
+        <v>129</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1595219472.785285</v>
+        <v>1328545128.738066</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1608996345373873</v>
+        <v>0.1055043164999678</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04945105068454644</v>
+        <v>0.04320772991702431</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2442,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3399476749.5713</v>
+        <v>4061516840.812037</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1339970259099939</v>
+        <v>0.1158549166196116</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02112622139418773</v>
+        <v>0.01675500662392802</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>51</v>
+      </c>
+      <c r="J57" t="n">
+        <v>128</v>
+      </c>
+      <c r="K57" t="n">
+        <v>140.8975842019566</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1897637262.532286</v>
+        <v>1665850851.5822</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1305761771839009</v>
+        <v>0.1550332882994771</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03851962991972022</v>
+        <v>0.03967253182888578</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2514,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3546366604.199217</v>
+        <v>5391338001.873277</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1170000734317083</v>
+        <v>0.08355084143099203</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03018786328677341</v>
+        <v>0.03039067503009431</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>62</v>
+      </c>
+      <c r="J59" t="n">
+        <v>129</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2315050219.194029</v>
+        <v>2779532626.791832</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1942505573311498</v>
+        <v>0.191497944858059</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03160632880970349</v>
+        <v>0.0312577854431094</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>20</v>
+      </c>
+      <c r="J60" t="n">
+        <v>127</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3165178658.128201</v>
+        <v>2807159881.123814</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1137057782192229</v>
+        <v>0.1351686539932601</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0205604939356214</v>
+        <v>0.02514990831341114</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>118</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2625,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1359587348.775457</v>
+        <v>1612521838.847609</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1231715079197242</v>
+        <v>0.150324962609109</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03922460239433986</v>
+        <v>0.045322839864406</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2660,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4025738660.003969</v>
+        <v>3834145668.456624</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08108019081240354</v>
+        <v>0.08055963323701283</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03402023229102893</v>
+        <v>0.04188908371621698</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>64</v>
+      </c>
+      <c r="J63" t="n">
+        <v>128</v>
+      </c>
+      <c r="K63" t="n">
+        <v>134.7691030832519</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2697,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5264320098.998816</v>
+        <v>5464030566.154245</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1873077760976736</v>
+        <v>0.1861700753299901</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0222695436555339</v>
+        <v>0.03543267620478754</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>64</v>
+      </c>
+      <c r="J64" t="n">
+        <v>128</v>
+      </c>
+      <c r="K64" t="n">
+        <v>141.6056441431203</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2728,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5062242939.137052</v>
+        <v>4380885275.343789</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1579598331336176</v>
+        <v>0.1417003550392696</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02395446666075497</v>
+        <v>0.03165649221148571</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>107</v>
+      </c>
+      <c r="J65" t="n">
+        <v>129</v>
+      </c>
+      <c r="K65" t="n">
+        <v>151.4708192565654</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2765,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4881297542.942903</v>
+        <v>4966829996.051019</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1096385220552338</v>
+        <v>0.1232570216849706</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04562791180784506</v>
+        <v>0.04045032890609433</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>63</v>
+      </c>
+      <c r="J66" t="n">
+        <v>129</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2586237446.485954</v>
+        <v>2270526271.672654</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07276115495326363</v>
+        <v>0.07070121589331245</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05138603317385151</v>
+        <v>0.03636442986035126</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2835,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5250974243.837934</v>
+        <v>5280669541.15665</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1176491166677782</v>
+        <v>0.09837840474358592</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03116072511593188</v>
+        <v>0.04217533138744204</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>65</v>
+      </c>
+      <c r="J68" t="n">
+        <v>128</v>
+      </c>
+      <c r="K68" t="n">
+        <v>137.8976601160472</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2121897626.226378</v>
+        <v>2397255269.01594</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1302087955956057</v>
+        <v>0.1127863808623293</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05220422750084475</v>
+        <v>0.06016253126277155</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2913,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3372298259.59305</v>
+        <v>2729049097.061916</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08734382482775485</v>
+        <v>0.06720884715734576</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04102890218451082</v>
+        <v>0.03577715794523543</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>15</v>
+      </c>
+      <c r="J70" t="n">
+        <v>125</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2942,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3540010256.631692</v>
+        <v>4397711690.186728</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1703535227504449</v>
+        <v>0.1196866510000499</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02597657701681727</v>
+        <v>0.02437105268403295</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>104</v>
+      </c>
+      <c r="J71" t="n">
+        <v>129</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1788131089.555897</v>
+        <v>2251553715.832464</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07464760134454111</v>
+        <v>0.1068637296325809</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04377230367679556</v>
+        <v>0.05116920288747753</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3442303839.077363</v>
+        <v>2258030546.337671</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0801506249574849</v>
+        <v>0.06881666387166226</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05005025051289783</v>
+        <v>0.03622161671452705</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>9</v>
+      </c>
+      <c r="J73" t="n">
+        <v>118</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3386826149.064394</v>
+        <v>3842157922.564528</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1347185248885359</v>
+        <v>0.1675481684540613</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02158765912603894</v>
+        <v>0.03064454456662745</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>42</v>
+      </c>
+      <c r="J74" t="n">
+        <v>129</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2222536990.659554</v>
+        <v>2193705031.426836</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1423906374322503</v>
+        <v>0.1261541996739782</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02538657698022486</v>
+        <v>0.03303632339936714</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3123,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4251837392.763032</v>
+        <v>4090325654.557065</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1134609641510992</v>
+        <v>0.1112614891250586</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03061234866187533</v>
+        <v>0.02201142776844962</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>60</v>
+      </c>
+      <c r="J76" t="n">
+        <v>128</v>
+      </c>
+      <c r="K76" t="n">
+        <v>120.2995657738847</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1643087992.317775</v>
+        <v>1553831035.139135</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1786547155787967</v>
+        <v>0.1599504020792129</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02938077464813003</v>
+        <v>0.03073862695155019</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2991074161.894583</v>
+        <v>3943504543.486499</v>
       </c>
       <c r="F78" t="n">
-        <v>0.134029259543534</v>
+        <v>0.1197646411943936</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05430024434577536</v>
+        <v>0.05495796434165712</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>63</v>
+      </c>
+      <c r="J78" t="n">
+        <v>129</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1651631611.586801</v>
+        <v>1428446984.346157</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1679963431062211</v>
+        <v>0.1563523751221673</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02567376896278227</v>
+        <v>0.02928861933581316</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4260574391.554533</v>
+        <v>4776378805.318311</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0863647734556825</v>
+        <v>0.07807397494560531</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03756820412973583</v>
+        <v>0.02463261773059693</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>62</v>
+      </c>
+      <c r="J80" t="n">
+        <v>129</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3615855804.496567</v>
+        <v>4803666465.959757</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1045460917669559</v>
+        <v>0.1293082791461694</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03033679323143653</v>
+        <v>0.02316582845826887</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>58</v>
+      </c>
+      <c r="J81" t="n">
+        <v>129</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3335,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3477269376.159406</v>
+        <v>3759297624.630645</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1346749886225448</v>
+        <v>0.1424260621645135</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01787395103330186</v>
+        <v>0.02086143411557765</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>90</v>
+      </c>
+      <c r="J82" t="n">
+        <v>129</v>
+      </c>
+      <c r="K82" t="n">
+        <v>151.3288504597074</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2449993029.069137</v>
+        <v>2301591743.954928</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09535516280556031</v>
+        <v>0.09977323553220803</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04180786969121718</v>
+        <v>0.03326703859453148</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1694342986.137071</v>
+        <v>2002382634.545391</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07427493174621243</v>
+        <v>0.07507727369645811</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03472831374550973</v>
+        <v>0.05227330211140307</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3107881794.405138</v>
+        <v>2456178906.211327</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1247402116877682</v>
+        <v>0.1599633750816712</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03476527861807006</v>
+        <v>0.03469394848895784</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>19</v>
+      </c>
+      <c r="J85" t="n">
+        <v>106</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2306783251.948433</v>
+        <v>2199152832.901723</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1595770135917571</v>
+        <v>0.1271945559715449</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01725795409094617</v>
+        <v>0.02330907803254895</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1291864768.051291</v>
+        <v>1129533183.22826</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1895857552370196</v>
+        <v>0.124280795305411</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03488154157247546</v>
+        <v>0.03226733413024067</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2990510212.531763</v>
+        <v>2605090430.181355</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1316376696902181</v>
+        <v>0.1077123863693758</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03706824142240424</v>
+        <v>0.03304251737699346</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>18</v>
+      </c>
+      <c r="J88" t="n">
+        <v>122</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3265165637.599979</v>
+        <v>3450053257.746637</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1181576119571096</v>
+        <v>0.106389518824596</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03517926895593985</v>
+        <v>0.03414641374298007</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>11</v>
+      </c>
+      <c r="J89" t="n">
+        <v>124</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2090195158.545372</v>
+        <v>1585455469.683783</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1381246419349028</v>
+        <v>0.1262789550673802</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03595287225516343</v>
+        <v>0.04248092655289312</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1828560894.931833</v>
+        <v>1302995222.927754</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1682887019126776</v>
+        <v>0.1458917246132767</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04243825477327234</v>
+        <v>0.06207920017114586</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2694351504.775899</v>
+        <v>2093677873.32958</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09660439354935278</v>
+        <v>0.07569661805343714</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04430497826206981</v>
+        <v>0.04567919576444526</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3722,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4921007177.063272</v>
+        <v>3971739723.068317</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1345874822344259</v>
+        <v>0.1335827876406936</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04735931803712888</v>
+        <v>0.05367418325963638</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>58</v>
+      </c>
+      <c r="J93" t="n">
+        <v>129</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3757,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2006929442.26834</v>
+        <v>2232447550.621674</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1061077838379011</v>
+        <v>0.1668279477090633</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03017434819748591</v>
+        <v>0.04319016297162134</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2674189822.921339</v>
+        <v>3225685300.564809</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09177170244671362</v>
+        <v>0.1313407295082095</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04663827918417768</v>
+        <v>0.03874728925365637</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1646658718.964515</v>
+        <v>1584530997.213207</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1273719785483373</v>
+        <v>0.09531932322441794</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03423023949491345</v>
+        <v>0.04654496335238758</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5339042355.912364</v>
+        <v>4247817921.830732</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1247417267212849</v>
+        <v>0.1174123792111567</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02778300130966347</v>
+        <v>0.01854677185297424</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>62</v>
+      </c>
+      <c r="J97" t="n">
+        <v>128</v>
+      </c>
+      <c r="K97" t="n">
+        <v>145.1887171724066</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3930937960.8656</v>
+        <v>3934003804.951255</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07946330718772306</v>
+        <v>0.08158192234911825</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0259628924247767</v>
+        <v>0.02448402788717104</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>30</v>
+      </c>
+      <c r="J98" t="n">
+        <v>129</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2271793956.583577</v>
+        <v>2545160110.335631</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09083008091160001</v>
+        <v>0.144937610730771</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03527516028973804</v>
+        <v>0.03131414798940355</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4383022562.507071</v>
+        <v>4258193149.323278</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1573091467620153</v>
+        <v>0.1695604025155863</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01910166232591231</v>
+        <v>0.02194463568917561</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>53</v>
+      </c>
+      <c r="J100" t="n">
+        <v>128</v>
+      </c>
+      <c r="K100" t="n">
+        <v>135.1374301218061</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2532221562.907248</v>
+        <v>2820251493.776199</v>
       </c>
       <c r="F101" t="n">
-        <v>0.139734775242396</v>
+        <v>0.163480728142889</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05791492755314979</v>
+        <v>0.05324968445956758</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>7</v>
+      </c>
+      <c r="J101" t="n">
+        <v>119</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
